--- a/Archivos/REPORTE INICIAL.xlsx
+++ b/Archivos/REPORTE INICIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyect-CFE-2.0\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43048F5F-AA89-472E-A3E7-129977A0B7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB758652-593C-460A-8538-545112D90911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{F57099C2-AB33-6146-AEB1-4812723612B3}"/>
   </bookViews>
@@ -867,219 +867,9 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1134,6 +924,17 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
@@ -1151,6 +952,370 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1220,10 +1385,49 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1246,42 +1450,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1321,42 +1489,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1385,24 +1517,10 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1427,124 +1545,6 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1645,13 +1645,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border>
@@ -1667,7 +1663,20 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1700,15 +1709,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -1724,8 +1726,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1818,16 +1818,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1854,6 +1844,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1871,7 +1871,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1907,7 +1907,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1919,6 +1919,17 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1946,17 +1957,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2185,6 +2185,65 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
@@ -2205,45 +2264,19 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -2279,40 +2312,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2370,13 +2370,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border>
@@ -2392,7 +2388,20 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2425,15 +2434,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -2449,44 +2451,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2541,170 +2505,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2807,6 +2607,240 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2978,17 +3012,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3073,39 +3096,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3137,7 +3127,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3210,6 +3200,33 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -3236,24 +3253,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3289,7 +3289,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3299,8 +3299,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3335,19 +3335,15 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border>
@@ -3363,7 +3359,20 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3396,15 +3405,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -3420,9 +3422,14 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3457,13 +3464,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3790,11 +3790,7 @@
   <dimension ref="A1:AZ352"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3802,7 +3798,7 @@
     <col min="1" max="1" width="6.6328125" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.08984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="8" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.26953125" style="8" customWidth="1"/>
@@ -24781,142 +24777,142 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="154" priority="45" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="46" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="154" priority="46" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="47" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="153" priority="47" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",H25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="45" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H296">
-    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H181)))</formula>
+    <cfRule type="containsText" dxfId="151" priority="153" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",H181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(H181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(H181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(H181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",H181)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16 J26:J27 J139:J180">
-    <cfRule type="containsText" dxfId="147" priority="73" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(J16))))</formula>
+    <cfRule type="containsText" dxfId="147" priority="75" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(J16))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="146" priority="74" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(J16))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="75" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(J16))))</formula>
+    <cfRule type="containsText" dxfId="145" priority="73" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="144" priority="52" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J17)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="54" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="143" priority="53" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="54" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J17)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="52" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J25">
-    <cfRule type="containsText" dxfId="141" priority="41" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="141" priority="43" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="42" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="139" priority="42" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="43" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",J24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="44" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="137" priority="34" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="34" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="35" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="135" priority="35" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="36" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="134" priority="36" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="37" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138">
     <cfRule type="containsText" dxfId="133" priority="38" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",J138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="39" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="132" priority="40" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",J138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="39" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",J138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="40" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",J138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J181:J296">
-    <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",J181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="130" priority="147" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(J181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="148" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(J181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="149" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",J181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",J181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M181:M296">
-    <cfRule type="containsText" dxfId="126" priority="142" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="126" priority="144" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(M181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="145" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",M181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="142" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",M181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="143" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="123" priority="143" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(M181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="144" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(M181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="145" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",M181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O181:O296">
-    <cfRule type="containsText" dxfId="122" priority="138" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="122" priority="140" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(O181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="141" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",O181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="138" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",O181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="139" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="119" priority="139" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(O181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="140" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(O181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="141" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",O181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q181:Q296">
     <cfRule type="containsText" dxfId="118" priority="134" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",Q181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="135" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="117" priority="136" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(Q181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="135" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(Q181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="136" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(Q181))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="115" priority="137" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",Q181)))</formula>
@@ -24931,28 +24927,28 @@
     <cfRule type="containsText" dxfId="113" priority="18" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",S24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="19" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",S24)))</formula>
+    <cfRule type="containsText" dxfId="112" priority="21" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",S24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="20" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",S24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S24)))</formula>
+    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S29">
-    <cfRule type="containsText" dxfId="109" priority="14" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",S27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="14" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",S27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="107" priority="15" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",S27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="16" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="106" priority="16" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",S27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",S27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:S296">
@@ -24970,45 +24966,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="containsText" dxfId="101" priority="30" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="101" priority="33" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="30" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="31" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="99" priority="31" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="32" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="98" priority="32" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="33" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",U24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28:U29">
-    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="4" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",U28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="2" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",U28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",U28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="4" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",U28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U181:U296">
-    <cfRule type="containsText" dxfId="93" priority="126" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",U181)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="129" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",U181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="127" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="92" priority="128" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(U181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="127" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(U181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="128" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(U181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="129" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",U181)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="126" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",U181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
@@ -25026,31 +25022,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="containsText" dxfId="85" priority="10" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",W29)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",W29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="11" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",W29)))</formula>
+    <cfRule type="containsText" dxfId="84" priority="13" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",W29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="83" priority="12" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",W29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",W29)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",W29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W181:W296">
-    <cfRule type="containsText" dxfId="81" priority="122" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",W181)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="125" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",W181)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="123" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(W181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="124" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="79" priority="122" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",W181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(W181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="125" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",W181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
@@ -25096,25 +25092,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="containsText" dxfId="65" priority="76" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="65" priority="77" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AC16))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="76" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AC16))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="77" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AC16))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="78" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH(("R"),(AC16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17">
-    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",AC17)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AC17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="61" priority="50" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AC17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AC17)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",AC17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25">
@@ -25124,11 +25120,11 @@
     <cfRule type="containsText" dxfId="58" priority="6" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",AC25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AC25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",AC25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC181:AC296">
@@ -25146,17 +25142,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE181:AE296">
-    <cfRule type="containsText" dxfId="51" priority="106" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AE181)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="109" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AE181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="107" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="50" priority="108" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AE181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AE181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="108" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AE181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="109" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AE181)))</formula>
+    <cfRule type="containsText" dxfId="48" priority="106" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AE181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG15 AO2:AO14 J2:J15 M2:M15 O2:O15 Q2:Q15 W2:W15 Y2:Y15 AA2:AA15 AC2:AC15 AE2:AE15 AI2:AI15 AK2:AK15 U2:U17">
@@ -25187,78 +25183,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG181:AG296">
-    <cfRule type="containsText" dxfId="40" priority="102" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AG181)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="104" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AG181))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="103" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AG181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="104" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AG181))))</formula>
+    <cfRule type="containsText" dxfId="38" priority="102" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AG181)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="105" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",AG181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI181:AI296">
-    <cfRule type="containsText" dxfId="36" priority="98" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="36" priority="99" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(AI181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="98" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AI181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="99" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(AI181))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="101" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AI181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="100" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="33" priority="100" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AI181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="101" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AI181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK181:AK296">
-    <cfRule type="containsText" dxfId="32" priority="94" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AK181)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="96" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AK181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="95" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="31" priority="97" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AK181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="95" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AK181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="96" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AK181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="97" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AK181)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="94" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AK181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AM180 E2:E296 AP5:AQ180 AO15:AO180 W16:W23 Y16:Y23 M16:M180 O16:O180 Q16:Q180 AA16:AA180 AE16:AE180 AG16:AG180 AI16:AI180 AK16:AK180 J18:J23 S18:S23 U18:U23 AC18:AC24 U25:U27 W25:W28 Y25:Y180 S26 AC26:AC180 J29:J137 S30:S180 U30:U180 W30:W180">
-    <cfRule type="containsText" dxfId="28" priority="70" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH(("R"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH(("R"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM181:AM296">
-    <cfRule type="containsText" dxfId="25" priority="90" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AM181)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="93" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AM181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="91" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="24" priority="92" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AM181))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="91" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AM181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="92" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AM181))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="93" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AM181)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="90" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AM181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15">
-    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="21" priority="56" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AN15))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="55" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AN15))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AN15))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH(("R"),(AN15))))</formula>
@@ -25275,17 +25271,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO181:AO296">
-    <cfRule type="containsText" dxfId="16" priority="86" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AO181)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="87" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH(("P"),(AO181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="87" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH(("P"),(AO181))))</formula>
+    <cfRule type="containsText" dxfId="15" priority="89" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH(("E"),(AO181))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="89" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AO181)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="86" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AO181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP181:AP296 AO297:AQ297">
@@ -25300,25 +25296,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AQ3">
-    <cfRule type="containsText" dxfId="9" priority="67" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="9" priority="68" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH(("E"),(AP2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="67" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH(("P"),(AP2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="68" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH(("E"),(AP2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="69" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH(("R"),(AP2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
-    <cfRule type="containsText" dxfId="6" priority="58" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",AQ4)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="60" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",AQ4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="59" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AQ4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="60" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",AQ4)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",AQ4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ181:AQ296">
